--- a/einzelne_Woche_leer.xlsx
+++ b/einzelne_Woche_leer.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeldlugosch/Jupyter Notebook/commit_002/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/michaeldlugosch/Jupyter Notebook/commit_003/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FE8F16D-FEBB-124C-9817-CD73A4625577}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA45A65C-9A91-404C-98BB-0D66292D69AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="31100" windowHeight="19880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -866,7 +866,7 @@
   <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+      <selection activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
